--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1839,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111703549</v>
+        <v>111703377</v>
       </c>
       <c r="B12" t="n">
-        <v>88934</v>
+        <v>90678</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,21 +1855,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5741</v>
+        <v>4366</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516400.3313036363</v>
+        <v>516440.1511331969</v>
       </c>
       <c r="R12" t="n">
-        <v>6574443.797736092</v>
+        <v>6574461.330051985</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111703377</v>
+        <v>111704069</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>84997</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1971,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>3279</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Maskfingersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Clavaria fragilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Holmsk.:Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1994,17 +1994,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>N Björklunda (N Björklunda), Nrk</t>
+          <t>N Björklunda  (N Björklunda ), Nrk</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516440.1511331969</v>
+        <v>516437.0004434386</v>
       </c>
       <c r="R13" t="n">
-        <v>6574461.330051985</v>
+        <v>6574480.208031038</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111704069</v>
+        <v>111703549</v>
       </c>
       <c r="B14" t="n">
-        <v>84997</v>
+        <v>88934</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,21 +2087,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3279</v>
+        <v>5741</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Maskfingersvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Clavaria fragilis</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Holmsk.:Fr.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2110,17 +2110,17 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>N Björklunda  (N Björklunda ), Nrk</t>
+          <t>N Björklunda (N Björklunda), Nrk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516437.0004434386</v>
+        <v>516400.3313036363</v>
       </c>
       <c r="R14" t="n">
-        <v>6574480.208031038</v>
+        <v>6574443.797736092</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>

--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1839,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111703377</v>
+        <v>111703549</v>
       </c>
       <c r="B12" t="n">
-        <v>90678</v>
+        <v>88934</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,21 +1855,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4366</v>
+        <v>5741</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516440.1511331969</v>
+        <v>516400.3313036363</v>
       </c>
       <c r="R12" t="n">
-        <v>6574461.330051985</v>
+        <v>6574443.797736092</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111704069</v>
+        <v>111703377</v>
       </c>
       <c r="B13" t="n">
-        <v>84997</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1971,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3279</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Maskfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Clavaria fragilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Holmsk.:Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1994,17 +1994,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>N Björklunda  (N Björklunda ), Nrk</t>
+          <t>N Björklunda (N Björklunda), Nrk</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516437.0004434386</v>
+        <v>516440.1511331969</v>
       </c>
       <c r="R13" t="n">
-        <v>6574480.208031038</v>
+        <v>6574461.330051985</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111703549</v>
+        <v>111704069</v>
       </c>
       <c r="B14" t="n">
-        <v>88934</v>
+        <v>84997</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,21 +2087,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5741</v>
+        <v>3279</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Maskfingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Clavaria fragilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Holmsk.:Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2110,17 +2110,17 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>N Björklunda (N Björklunda), Nrk</t>
+          <t>N Björklunda  (N Björklunda ), Nrk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516400.3313036363</v>
+        <v>516437.0004434386</v>
       </c>
       <c r="R14" t="n">
-        <v>6574443.797736092</v>
+        <v>6574480.208031038</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>

--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1955,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111703377</v>
+        <v>111704069</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>84997</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1971,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>3279</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Maskfingersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Clavaria fragilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Holmsk.:Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1994,17 +1994,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>N Björklunda (N Björklunda), Nrk</t>
+          <t>N Björklunda  (N Björklunda ), Nrk</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516440.1511331969</v>
+        <v>516437.0004434386</v>
       </c>
       <c r="R13" t="n">
-        <v>6574461.330051985</v>
+        <v>6574480.208031038</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111704069</v>
+        <v>111703377</v>
       </c>
       <c r="B14" t="n">
-        <v>84997</v>
+        <v>90678</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,21 +2087,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3279</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Maskfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Clavaria fragilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Holmsk.:Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2110,17 +2110,17 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>N Björklunda  (N Björklunda ), Nrk</t>
+          <t>N Björklunda (N Björklunda), Nrk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516437.0004434386</v>
+        <v>516440.1511331969</v>
       </c>
       <c r="R14" t="n">
-        <v>6574480.208031038</v>
+        <v>6574461.330051985</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>

--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1955,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111704069</v>
+        <v>111703377</v>
       </c>
       <c r="B13" t="n">
-        <v>84997</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1971,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3279</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Maskfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Clavaria fragilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Holmsk.:Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1994,17 +1994,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>N Björklunda  (N Björklunda ), Nrk</t>
+          <t>N Björklunda (N Björklunda), Nrk</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516437.0004434386</v>
+        <v>516440.1511331969</v>
       </c>
       <c r="R13" t="n">
-        <v>6574480.208031038</v>
+        <v>6574461.330051985</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111703377</v>
+        <v>111704069</v>
       </c>
       <c r="B14" t="n">
-        <v>90678</v>
+        <v>84997</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,21 +2087,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>3279</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Maskfingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Clavaria fragilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Holmsk.:Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2110,17 +2110,17 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>N Björklunda (N Björklunda), Nrk</t>
+          <t>N Björklunda  (N Björklunda ), Nrk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516440.1511331969</v>
+        <v>516437.0004434386</v>
       </c>
       <c r="R14" t="n">
-        <v>6574461.330051985</v>
+        <v>6574480.208031038</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>

--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1839,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111703549</v>
+        <v>111704069</v>
       </c>
       <c r="B12" t="n">
-        <v>88934</v>
+        <v>84997</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,21 +1855,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5741</v>
+        <v>3279</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Maskfingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Clavaria fragilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Holmsk.:Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1878,17 +1878,17 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>N Björklunda (N Björklunda), Nrk</t>
+          <t>N Björklunda  (N Björklunda ), Nrk</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516400.3313036363</v>
+        <v>516437.0004434386</v>
       </c>
       <c r="R12" t="n">
-        <v>6574443.797736092</v>
+        <v>6574480.208031038</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111704069</v>
+        <v>111703549</v>
       </c>
       <c r="B14" t="n">
-        <v>84997</v>
+        <v>88934</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,21 +2087,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3279</v>
+        <v>5741</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Maskfingersvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Clavaria fragilis</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Holmsk.:Fr.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2110,17 +2110,17 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>N Björklunda  (N Björklunda ), Nrk</t>
+          <t>N Björklunda (N Björklunda), Nrk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516437.0004434386</v>
+        <v>516400.3313036363</v>
       </c>
       <c r="R14" t="n">
-        <v>6574480.208031038</v>
+        <v>6574443.797736092</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>

--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1955,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111703377</v>
+        <v>111703549</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>88934</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1971,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>5741</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516440.1511331969</v>
+        <v>516400.3313036363</v>
       </c>
       <c r="R13" t="n">
-        <v>6574461.330051985</v>
+        <v>6574443.797736092</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111703549</v>
+        <v>111703377</v>
       </c>
       <c r="B14" t="n">
-        <v>88934</v>
+        <v>90678</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,21 +2087,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>5741</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2114,10 +2114,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516400.3313036363</v>
+        <v>516440.1511331969</v>
       </c>
       <c r="R14" t="n">
-        <v>6574443.797736092</v>
+        <v>6574461.330051985</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>

--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1839,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111704069</v>
+        <v>111703549</v>
       </c>
       <c r="B12" t="n">
-        <v>84997</v>
+        <v>88934</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,21 +1855,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3279</v>
+        <v>5741</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Maskfingersvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Clavaria fragilis</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Holmsk.:Fr.</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1878,17 +1878,17 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>N Björklunda  (N Björklunda ), Nrk</t>
+          <t>N Björklunda (N Björklunda), Nrk</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516437.0004434386</v>
+        <v>516400.3313036363</v>
       </c>
       <c r="R12" t="n">
-        <v>6574480.208031038</v>
+        <v>6574443.797736092</v>
       </c>
       <c r="S12" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1955,10 +1955,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111703549</v>
+        <v>111703377</v>
       </c>
       <c r="B13" t="n">
-        <v>88934</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1971,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>5741</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1998,10 +1998,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516400.3313036363</v>
+        <v>516440.1511331969</v>
       </c>
       <c r="R13" t="n">
-        <v>6574443.797736092</v>
+        <v>6574461.330051985</v>
       </c>
       <c r="S13" t="n">
         <v>10</v>
@@ -2071,10 +2071,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111703377</v>
+        <v>111704069</v>
       </c>
       <c r="B14" t="n">
-        <v>90678</v>
+        <v>84997</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,21 +2087,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>3279</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Maskfingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Clavaria fragilis</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Holmsk.:Fr.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2110,17 +2110,17 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>N Björklunda (N Björklunda), Nrk</t>
+          <t>N Björklunda  (N Björklunda ), Nrk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516440.1511331969</v>
+        <v>516437.0004434386</v>
       </c>
       <c r="R14" t="n">
-        <v>6574461.330051985</v>
+        <v>6574480.208031038</v>
       </c>
       <c r="S14" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>

--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1882,10 +1882,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516400.3313036363</v>
+        <v>516400</v>
       </c>
       <c r="R12" t="n">
-        <v>6574443.797736092</v>
+        <v>6574444</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1915,19 +1915,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z12" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA12" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB12" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1955,10 +1945,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111703377</v>
+        <v>111704069</v>
       </c>
       <c r="B13" t="n">
-        <v>90678</v>
+        <v>84997</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1971,21 +1961,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4366</v>
+        <v>3279</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Maskfingersvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Clavaria fragilis</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>Holmsk.:Fr.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1994,17 +1984,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>N Björklunda (N Björklunda), Nrk</t>
+          <t>N Björklunda  (N Björklunda ), Nrk</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516440.1511331969</v>
+        <v>516437</v>
       </c>
       <c r="R13" t="n">
-        <v>6574461.330051985</v>
+        <v>6574480</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2031,19 +2021,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z13" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA13" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB13" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2071,10 +2051,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111704069</v>
+        <v>111703377</v>
       </c>
       <c r="B14" t="n">
-        <v>84997</v>
+        <v>90678</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2087,21 +2067,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3279</v>
+        <v>4366</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Maskfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Clavaria fragilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Holmsk.:Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2110,17 +2090,17 @@
       <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>N Björklunda  (N Björklunda ), Nrk</t>
+          <t>N Björklunda (N Björklunda), Nrk</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516437.0004434386</v>
+        <v>516440</v>
       </c>
       <c r="R14" t="n">
-        <v>6574480.208031038</v>
+        <v>6574461</v>
       </c>
       <c r="S14" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T14" t="inlineStr">
         <is>
@@ -2147,19 +2127,9 @@
           <t>2023-08-26</t>
         </is>
       </c>
-      <c r="Z14" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA14" t="inlineStr">
         <is>
           <t>2023-08-26</t>
-        </is>
-      </c>
-      <c r="AB14" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD14" t="b">

--- a/artfynd/A 30728-2021.xlsx
+++ b/artfynd/A 30728-2021.xlsx
@@ -1839,10 +1839,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>111703549</v>
+        <v>111704069</v>
       </c>
       <c r="B12" t="n">
-        <v>88934</v>
+        <v>84997</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1855,21 +1855,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>5741</v>
+        <v>3279</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Tjockfotad fingersvamp</t>
+          <t>Maskfingersvamp</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Ramaria flavescens</t>
+          <t>Clavaria fragilis</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Schaeff.) R. H. Petersen</t>
+          <t>Holmsk.:Fr.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1878,17 +1878,17 @@
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>N Björklunda (N Björklunda), Nrk</t>
+          <t>N Björklunda  (N Björklunda ), Nrk</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>516400</v>
+        <v>516437</v>
       </c>
       <c r="R12" t="n">
-        <v>6574444</v>
+        <v>6574480</v>
       </c>
       <c r="S12" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T12" t="inlineStr">
         <is>
@@ -1945,10 +1945,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>111704069</v>
+        <v>111703377</v>
       </c>
       <c r="B13" t="n">
-        <v>84997</v>
+        <v>90678</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1961,21 +1961,21 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>3279</v>
+        <v>4366</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Maskfingersvamp</t>
+          <t>Skarp dropptaggsvamp</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Clavaria fragilis</t>
+          <t>Hydnellum peckii</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Holmsk.:Fr.</t>
+          <t>Banker</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1984,17 +1984,17 @@
       <c r="N13" t="inlineStr"/>
       <c r="P13" t="inlineStr">
         <is>
-          <t>N Björklunda  (N Björklunda ), Nrk</t>
+          <t>N Björklunda (N Björklunda), Nrk</t>
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>516437</v>
+        <v>516440</v>
       </c>
       <c r="R13" t="n">
-        <v>6574480</v>
+        <v>6574461</v>
       </c>
       <c r="S13" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2051,10 +2051,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>111703377</v>
+        <v>111703549</v>
       </c>
       <c r="B14" t="n">
-        <v>90678</v>
+        <v>88934</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2067,21 +2067,21 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4366</v>
+        <v>5741</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skarp dropptaggsvamp</t>
+          <t>Tjockfotad fingersvamp</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum peckii</t>
+          <t>Ramaria flavescens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Banker</t>
+          <t>(Schaeff.) R. H. Petersen</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
@@ -2094,10 +2094,10 @@
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>516440</v>
+        <v>516400</v>
       </c>
       <c r="R14" t="n">
-        <v>6574461</v>
+        <v>6574444</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
